--- a/Checklist Datos2.xlsx
+++ b/Checklist Datos2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\OMIXOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2F4BC3-BE9E-4DAF-BF0D-F88A8776141A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC29507-5F89-4CDB-B1AF-5EDA8F7A6616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED264797-A6AF-4AE6-8175-48CD6CF14227}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Impresiones</t>
   </si>
@@ -101,30 +101,15 @@
     <t>Tira pines hembra</t>
   </si>
   <si>
-    <t>Tapa superior</t>
-  </si>
-  <si>
     <t>Topes</t>
   </si>
   <si>
-    <t>Base Porta Pila</t>
-  </si>
-  <si>
-    <t>Soporte holder</t>
-  </si>
-  <si>
-    <t>Soporte telemetria</t>
-  </si>
-  <si>
     <t>Localizador</t>
   </si>
   <si>
     <t>0'ring</t>
   </si>
   <si>
-    <t>Tapa Inferior Pluv</t>
-  </si>
-  <si>
     <t>Interruptor</t>
   </si>
   <si>
@@ -140,39 +125,9 @@
     <t>Aro Totalizador</t>
   </si>
   <si>
-    <t>Tapa Estanco a</t>
-  </si>
-  <si>
-    <t>Tapa Estanco b</t>
-  </si>
-  <si>
-    <t>Agarre Caño</t>
-  </si>
-  <si>
-    <t>Mensula Lluvia</t>
-  </si>
-  <si>
     <t>Totalizador</t>
   </si>
   <si>
-    <t>Tapa Protectora</t>
-  </si>
-  <si>
-    <t>Cuerpo Sensor uv</t>
-  </si>
-  <si>
-    <t>Tapa Inferior uv</t>
-  </si>
-  <si>
-    <t>Protector lente</t>
-  </si>
-  <si>
-    <t>Tengo2</t>
-  </si>
-  <si>
-    <t>Tengo3</t>
-  </si>
-  <si>
     <t>Cable Cuatro Polos</t>
   </si>
   <si>
@@ -222,13 +177,76 @@
   </si>
   <si>
     <t>Silicona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tengo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tengo  </t>
+  </si>
+  <si>
+    <t>Holder Cargador</t>
+  </si>
+  <si>
+    <t>Telemetria</t>
+  </si>
+  <si>
+    <t>Holder Step Up</t>
+  </si>
+  <si>
+    <t>Placa Portapilas</t>
+  </si>
+  <si>
+    <t>Tapa Inferior</t>
+  </si>
+  <si>
+    <t>Tapa Superior</t>
+  </si>
+  <si>
+    <t>Estanco A</t>
+  </si>
+  <si>
+    <t>Estanco B</t>
+  </si>
+  <si>
+    <t>Mensula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapa </t>
+  </si>
+  <si>
+    <t>Pluviometro</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Tapa</t>
+  </si>
+  <si>
+    <t>Cuerpo</t>
+  </si>
+  <si>
+    <t>Sensor UV</t>
+  </si>
+  <si>
+    <t>Fijacion</t>
+  </si>
+  <si>
+    <t>Agarre</t>
+  </si>
+  <si>
+    <t>Traba</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,16 +254,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -305,11 +348,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,45 +427,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
+        <right/>
         <top style="thin">
           <color auto="1"/>
         </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -379,8 +492,12 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -398,8 +515,12 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -417,8 +538,12 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -430,14 +555,37 @@
         <right style="thin">
           <color auto="1"/>
         </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -453,26 +601,46 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,15 +656,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB692F97-508C-4B60-86BB-47B6DB55DF42}" name="Table2" displayName="Table2" ref="A1:F21" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="A1:F21" xr:uid="{BB692F97-508C-4B60-86BB-47B6DB55DF42}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F4E82FB-C45E-4FED-BE9C-30A1E9AC8C4F}" name="Table1" displayName="Table1" ref="B1:G22" totalsRowShown="0" headerRowDxfId="4" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="B1:G22" xr:uid="{5F4E82FB-C45E-4FED-BE9C-30A1E9AC8C4F}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FA823CEB-3AC5-43BE-A829-2C1C55CF8A22}" name="Impresiones" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{BAC6BE0A-36F7-4C72-8D8D-8FA9AB498AB3}" name="Tengo" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4AE3A1B1-F7A2-431E-87AA-999431770676}" name="Electronica" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A3BF3BBB-E306-4C00-8274-4EB27C62FD91}" name="Tengo2" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{09B08F7B-7DE9-4343-A3B3-2AE6F8666D1D}" name="Ferreteria" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{7525DD0C-C55D-485D-A837-ABB373FCF1FB}" name="Tengo3" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{24DE67DE-9887-45C7-A086-51BD5F9A45CE}" name="Impresiones" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{471D14AA-6A86-4CBE-82AC-9661D380F813}" name="Tengo" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{C1E5E144-39A1-45BF-8446-C105FEBFE9E9}" name="Electronica" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{57A7C7D3-255F-4B8E-87E9-3BBEC0A49ACC}" name="Tengo " dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{6270E6FB-A4CD-4460-9763-A9B12F123A77}" name="Ferreteria" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{135D4961-2D8B-40B7-98F4-7A03B610CBB4}" name="Tengo  " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -819,316 +987,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE61199-FAAD-42B7-B601-9282F8696D39}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>18650</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>18650</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Checklist Datos2.xlsx
+++ b/Checklist Datos2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\OMIXOM\Datos2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC29507-5F89-4CDB-B1AF-5EDA8F7A6616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094FBEF4-2C45-49D0-AACE-116AA19E65B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED264797-A6AF-4AE6-8175-48CD6CF14227}"/>
   </bookViews>
@@ -443,10 +443,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,25 +555,6 @@
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -617,13 +598,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -641,6 +615,32 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -656,11 +656,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F4E82FB-C45E-4FED-BE9C-30A1E9AC8C4F}" name="Table1" displayName="Table1" ref="B1:G22" totalsRowShown="0" headerRowDxfId="4" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F4E82FB-C45E-4FED-BE9C-30A1E9AC8C4F}" name="Table1" displayName="Table1" ref="B1:G22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B1:G22" xr:uid="{5F4E82FB-C45E-4FED-BE9C-30A1E9AC8C4F}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{24DE67DE-9887-45C7-A086-51BD5F9A45CE}" name="Impresiones" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{471D14AA-6A86-4CBE-82AC-9661D380F813}" name="Tengo" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{24DE67DE-9887-45C7-A086-51BD5F9A45CE}" name="Impresiones" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{471D14AA-6A86-4CBE-82AC-9661D380F813}" name="Tengo" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{C1E5E144-39A1-45BF-8446-C105FEBFE9E9}" name="Electronica" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{57A7C7D3-255F-4B8E-87E9-3BBEC0A49ACC}" name="Tengo " dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{6270E6FB-A4CD-4460-9763-A9B12F123A77}" name="Ferreteria" dataDxfId="1"/>
@@ -990,12 +990,12 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
@@ -1026,7 +1026,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1043,7 +1043,7 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1148,7 +1148,7 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1165,7 +1165,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
@@ -1195,7 +1195,7 @@
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1272,7 +1272,7 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2" t="s">
         <v>62</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1319,7 +1319,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="2" t="s">
         <v>64</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="6" t="s">
         <v>66</v>
       </c>
@@ -1356,7 +1356,7 @@
     <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Checklist Datos2.xlsx
+++ b/Checklist Datos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\OMIXOM\Datos2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094FBEF4-2C45-49D0-AACE-116AA19E65B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC86395-D770-4E12-9572-86BA12EC865C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED264797-A6AF-4AE6-8175-48CD6CF14227}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Impresiones</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>PCB</t>
   </si>
 </sst>
 </file>
@@ -990,7 +993,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1328,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">

--- a/Checklist Datos2.xlsx
+++ b/Checklist Datos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\OMIXOM\Datos2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC86395-D770-4E12-9572-86BA12EC865C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABFC420-C032-47F1-AB21-421C3CFF6251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED264797-A6AF-4AE6-8175-48CD6CF14227}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>Impresiones</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>PCB</t>
+  </si>
+  <si>
+    <t>Terminales Dupont</t>
   </si>
 </sst>
 </file>
@@ -993,7 +996,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1284,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
@@ -1296,7 +1299,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
@@ -1313,7 +1316,7 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
@@ -1328,7 +1331,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
@@ -1342,8 +1345,8 @@
         <v>66</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>67</v>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">

--- a/Checklist Datos2.xlsx
+++ b/Checklist Datos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\OMIXOM\Datos2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABFC420-C032-47F1-AB21-421C3CFF6251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC404CA4-D71F-46FD-9A59-420C3DCE8718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED264797-A6AF-4AE6-8175-48CD6CF14227}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Impresiones</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Terminales Dupont</t>
+  </si>
+  <si>
+    <t>Antena</t>
   </si>
 </sst>
 </file>
@@ -662,8 +665,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F4E82FB-C45E-4FED-BE9C-30A1E9AC8C4F}" name="Table1" displayName="Table1" ref="B1:G22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="B1:G22" xr:uid="{5F4E82FB-C45E-4FED-BE9C-30A1E9AC8C4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F4E82FB-C45E-4FED-BE9C-30A1E9AC8C4F}" name="Table1" displayName="Table1" ref="B1:G23" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="B1:G23" xr:uid="{5F4E82FB-C45E-4FED-BE9C-30A1E9AC8C4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{24DE67DE-9887-45C7-A086-51BD5F9A45CE}" name="Impresiones" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{471D14AA-6A86-4CBE-82AC-9661D380F813}" name="Tengo" dataDxfId="4"/>
@@ -993,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE61199-FAAD-42B7-B601-9282F8696D39}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,6 +1357,20 @@
       </c>
       <c r="G22" s="9"/>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A20:A22"/>
